--- a/database/industries/darou/detmad/product/yearly.xlsx
+++ b/database/industries/darou/detmad/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F76C93-4E3D-4D98-97F2-AFF763D18EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F359788-6989-4BF6-A859-B41562C13EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="37">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -124,7 +124,7 @@
     <t>کیلوگرم / ریال</t>
   </si>
   <si>
-    <t>لیتر / ریال</t>
+    <t>بطری/عدد / ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -590,12 +590,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -605,7 +605,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -673,7 +673,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -705,7 +705,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -736,22 +736,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1588738</v>
+        <v>1134946</v>
       </c>
       <c r="F11" s="11">
-        <v>1134946</v>
+        <v>1689410</v>
       </c>
       <c r="G11" s="11">
-        <v>1689410</v>
+        <v>1835712</v>
       </c>
       <c r="H11" s="11">
-        <v>1835712</v>
+        <v>1321338</v>
       </c>
       <c r="I11" s="11">
-        <v>1321338</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1759993</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -760,22 +760,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>468715</v>
+        <v>243886</v>
       </c>
       <c r="F12" s="9">
-        <v>243886</v>
+        <v>185714</v>
       </c>
       <c r="G12" s="9">
-        <v>185714</v>
+        <v>513572</v>
       </c>
       <c r="H12" s="9">
-        <v>513572</v>
+        <v>406374</v>
       </c>
       <c r="I12" s="9">
-        <v>406374</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>258375</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -790,14 +790,14 @@
       <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>11</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -845,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -893,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -917,7 +917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -925,45 +925,45 @@
         <v>22</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>11</v>
+      <c r="E19" s="11">
+        <v>756111</v>
       </c>
       <c r="F19" s="11">
-        <v>756111</v>
+        <v>937401</v>
       </c>
       <c r="G19" s="11">
-        <v>937401</v>
+        <v>1000247</v>
       </c>
       <c r="H19" s="11">
-        <v>1000247</v>
+        <v>89410019</v>
       </c>
       <c r="I19" s="11">
-        <v>89410019</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7820464</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>2057453</v>
+        <v>2134943</v>
       </c>
       <c r="F20" s="13">
-        <v>2134943</v>
+        <v>2812525</v>
       </c>
       <c r="G20" s="13">
-        <v>2812525</v>
+        <v>3349531</v>
       </c>
       <c r="H20" s="13">
-        <v>3349531</v>
+        <v>91137731</v>
       </c>
       <c r="I20" s="13">
-        <v>91137731</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9838832</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -973,7 +973,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -983,7 +983,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -993,7 +993,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1025,7 +1025,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>25</v>
       </c>
@@ -1055,8 +1055,8 @@
         <v>26</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>11</v>
+      <c r="E27" s="11">
+        <v>0</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -1064,14 +1064,14 @@
       <c r="G27" s="11">
         <v>0</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
+      <c r="H27" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>12</v>
       </c>
@@ -1080,22 +1080,22 @@
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>1706878</v>
+        <v>1141849</v>
       </c>
       <c r="F28" s="9">
-        <v>1141849</v>
+        <v>1425649</v>
       </c>
       <c r="G28" s="9">
-        <v>1425649</v>
+        <v>1910137</v>
       </c>
       <c r="H28" s="9">
-        <v>1910137</v>
+        <v>1572396</v>
       </c>
       <c r="I28" s="9">
-        <v>1572396</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1764571</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>14</v>
       </c>
@@ -1104,29 +1104,29 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>484311</v>
+        <v>226030</v>
       </c>
       <c r="F29" s="11">
-        <v>226030</v>
+        <v>196580</v>
       </c>
       <c r="G29" s="11">
-        <v>196580</v>
+        <v>365117</v>
       </c>
       <c r="H29" s="11">
-        <v>365117</v>
+        <v>472003</v>
       </c>
       <c r="I29" s="11">
-        <v>472003</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>240512</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>11</v>
+      <c r="E30" s="9">
+        <v>0</v>
       </c>
       <c r="F30" s="9">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>18</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>21</v>
       </c>
@@ -1278,14 +1278,14 @@
       <c r="G36" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>11</v>
+      <c r="H36" s="9">
+        <v>98672190</v>
       </c>
       <c r="I36" s="9">
-        <v>98672190</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66006118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>21</v>
       </c>
@@ -1293,45 +1293,45 @@
         <v>27</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
-        <v>11</v>
+      <c r="E37" s="11">
+        <v>774491</v>
       </c>
       <c r="F37" s="11">
-        <v>774491</v>
+        <v>943488</v>
       </c>
       <c r="G37" s="11">
-        <v>943488</v>
-      </c>
-      <c r="H37" s="11">
         <v>964072</v>
       </c>
+      <c r="H37" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="I37" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>2191189</v>
+        <v>2142370</v>
       </c>
       <c r="F38" s="13">
-        <v>2142370</v>
+        <v>2565717</v>
       </c>
       <c r="G38" s="13">
-        <v>2565717</v>
+        <v>3239326</v>
       </c>
       <c r="H38" s="13">
-        <v>3239326</v>
+        <v>100716589</v>
       </c>
       <c r="I38" s="13">
-        <v>100716589</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68011201</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1341,7 +1341,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1393,7 +1393,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>25</v>
       </c>
@@ -1425,8 +1425,8 @@
         <v>29</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>11</v>
+      <c r="E45" s="11">
+        <v>0</v>
       </c>
       <c r="F45" s="11">
         <v>0</v>
@@ -1434,14 +1434,14 @@
       <c r="G45" s="11">
         <v>0</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
+      <c r="H45" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
@@ -1450,22 +1450,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>828781</v>
+        <v>881533</v>
       </c>
       <c r="F46" s="9">
-        <v>881533</v>
+        <v>1473510</v>
       </c>
       <c r="G46" s="9">
-        <v>1473510</v>
+        <v>4050158</v>
       </c>
       <c r="H46" s="9">
-        <v>4050158</v>
+        <v>5919901</v>
       </c>
       <c r="I46" s="9">
-        <v>5919901</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9273090</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
@@ -1474,22 +1474,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>722604</v>
+        <v>999515</v>
       </c>
       <c r="F47" s="11">
-        <v>999515</v>
+        <v>1684191</v>
       </c>
       <c r="G47" s="11">
-        <v>1684191</v>
+        <v>2404603</v>
       </c>
       <c r="H47" s="11">
-        <v>2404603</v>
+        <v>2734921</v>
       </c>
       <c r="I47" s="11">
-        <v>2734921</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2296774</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1497,8 +1497,8 @@
         <v>29</v>
       </c>
       <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>11</v>
+      <c r="E48" s="9">
+        <v>0</v>
       </c>
       <c r="F48" s="9">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>18</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>19</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>21</v>
       </c>
@@ -1641,45 +1641,45 @@
         <v>29</v>
       </c>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>11</v>
+      <c r="E54" s="9">
+        <v>209254</v>
       </c>
       <c r="F54" s="9">
-        <v>209254</v>
+        <v>397138</v>
       </c>
       <c r="G54" s="9">
-        <v>397138</v>
+        <v>835700</v>
       </c>
       <c r="H54" s="9">
-        <v>835700</v>
+        <v>912104</v>
       </c>
       <c r="I54" s="9">
-        <v>912104</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1514676</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15">
-        <v>1551385</v>
+        <v>2090302</v>
       </c>
       <c r="F55" s="15">
-        <v>2090302</v>
+        <v>3554839</v>
       </c>
       <c r="G55" s="15">
-        <v>3554839</v>
+        <v>7290461</v>
       </c>
       <c r="H55" s="15">
-        <v>7290461</v>
+        <v>9566926</v>
       </c>
       <c r="I55" s="15">
-        <v>9566926</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13084540</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1699,7 +1699,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>30</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>10</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>25</v>
       </c>
@@ -1773,8 +1773,8 @@
         <v>32</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>11</v>
+      <c r="E62" s="11">
+        <v>0</v>
       </c>
       <c r="F62" s="11">
         <v>0</v>
@@ -1782,14 +1782,14 @@
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
+      <c r="H62" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="I62" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>12</v>
       </c>
@@ -1798,22 +1798,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>485554</v>
+        <v>772022</v>
       </c>
       <c r="F63" s="9">
-        <v>772022</v>
+        <v>1033571</v>
       </c>
       <c r="G63" s="9">
-        <v>1033571</v>
+        <v>2120349</v>
       </c>
       <c r="H63" s="9">
-        <v>2120349</v>
+        <v>3764892</v>
       </c>
       <c r="I63" s="9">
-        <v>3764892</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5255153</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>14</v>
       </c>
@@ -1822,22 +1822,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>1492025</v>
+        <v>4422046</v>
       </c>
       <c r="F64" s="11">
-        <v>4422046</v>
+        <v>8567459</v>
       </c>
       <c r="G64" s="11">
-        <v>8567459</v>
+        <v>6585842</v>
       </c>
       <c r="H64" s="11">
-        <v>6585842</v>
+        <v>5794287</v>
       </c>
       <c r="I64" s="11">
-        <v>5794287</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9549519</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
@@ -1845,8 +1845,8 @@
         <v>32</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
-        <v>11</v>
+      <c r="E65" s="9">
+        <v>0</v>
       </c>
       <c r="F65" s="9">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>18</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>21</v>
       </c>
@@ -1989,23 +1989,23 @@
         <v>34</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>11</v>
+      <c r="E71" s="9">
+        <v>270183</v>
       </c>
       <c r="F71" s="9">
-        <v>270183</v>
+        <v>420925</v>
       </c>
       <c r="G71" s="9">
-        <v>420925</v>
+        <v>866844</v>
       </c>
       <c r="H71" s="9">
-        <v>866844</v>
+        <v>9244</v>
       </c>
       <c r="I71" s="9">
-        <v>9244</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22948</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2025,7 +2025,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2035,7 +2035,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2067,7 +2067,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>25</v>
       </c>
@@ -2075,8 +2075,8 @@
         <v>29</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>11</v>
+      <c r="E77" s="9">
+        <v>0</v>
       </c>
       <c r="F77" s="9">
         <v>0</v>
@@ -2084,14 +2084,14 @@
       <c r="G77" s="9">
         <v>0</v>
       </c>
-      <c r="H77" s="9">
-        <v>0</v>
+      <c r="H77" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>12</v>
       </c>
@@ -2099,23 +2099,23 @@
         <v>29</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>11</v>
+      <c r="E78" s="11">
+        <v>-744730</v>
       </c>
       <c r="F78" s="11">
-        <v>-744730</v>
+        <v>-1008842</v>
       </c>
       <c r="G78" s="11">
-        <v>-1008842</v>
+        <v>-2210743</v>
       </c>
       <c r="H78" s="11">
-        <v>-2210743</v>
+        <v>-2987204</v>
       </c>
       <c r="I78" s="11">
-        <v>-2987204</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5076138</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>14</v>
       </c>
@@ -2123,23 +2123,23 @@
         <v>29</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>11</v>
+      <c r="E79" s="9">
+        <v>-376285</v>
       </c>
       <c r="F79" s="9">
-        <v>-376285</v>
+        <v>-739157</v>
       </c>
       <c r="G79" s="9">
-        <v>-739157</v>
+        <v>-653825</v>
       </c>
       <c r="H79" s="9">
-        <v>-653825</v>
+        <v>-890909</v>
       </c>
       <c r="I79" s="9">
-        <v>-890909</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1010197</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>15</v>
       </c>
@@ -2147,8 +2147,8 @@
         <v>29</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>11</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
@@ -2171,45 +2171,45 @@
         <v>29</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>11</v>
+      <c r="E81" s="9">
+        <v>-84319</v>
       </c>
       <c r="F81" s="9">
-        <v>-84319</v>
+        <v>-226747</v>
       </c>
       <c r="G81" s="9">
-        <v>-226747</v>
+        <v>-373045</v>
       </c>
       <c r="H81" s="9">
-        <v>-373045</v>
+        <v>-531255</v>
       </c>
       <c r="I81" s="9">
-        <v>-531255</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-882503</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>0</v>
+        <v>-1205334</v>
       </c>
       <c r="F82" s="15">
-        <v>-1205334</v>
+        <v>-1974746</v>
       </c>
       <c r="G82" s="15">
-        <v>-1974746</v>
+        <v>-3237613</v>
       </c>
       <c r="H82" s="15">
-        <v>-3237613</v>
+        <v>-4409368</v>
       </c>
       <c r="I82" s="15">
-        <v>-4409368</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-6968838</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2219,7 +2219,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2229,7 +2229,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2239,7 +2239,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B86" s="7" t="s">
         <v>36</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2271,7 +2271,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>25</v>
       </c>
@@ -2282,20 +2282,20 @@
       <c r="E88" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F88" s="9" t="s">
-        <v>11</v>
+      <c r="F88" s="9">
+        <v>0</v>
       </c>
       <c r="G88" s="9">
         <v>0</v>
       </c>
-      <c r="H88" s="9">
-        <v>0</v>
+      <c r="H88" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="I88" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>12</v>
       </c>
@@ -2303,23 +2303,23 @@
         <v>29</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>11</v>
+      <c r="E89" s="11">
+        <v>136803</v>
       </c>
       <c r="F89" s="11">
-        <v>136803</v>
+        <v>464668</v>
       </c>
       <c r="G89" s="11">
-        <v>464668</v>
+        <v>1839415</v>
       </c>
       <c r="H89" s="11">
-        <v>1839415</v>
+        <v>2932697</v>
       </c>
       <c r="I89" s="11">
-        <v>2932697</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4196952</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>14</v>
       </c>
@@ -2327,23 +2327,23 @@
         <v>29</v>
       </c>
       <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
-        <v>11</v>
+      <c r="E90" s="9">
+        <v>623230</v>
       </c>
       <c r="F90" s="9">
-        <v>623230</v>
+        <v>945034</v>
       </c>
       <c r="G90" s="9">
-        <v>945034</v>
+        <v>1750778</v>
       </c>
       <c r="H90" s="9">
-        <v>1750778</v>
+        <v>1844012</v>
       </c>
       <c r="I90" s="9">
-        <v>1844012</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1286577</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>15</v>
       </c>
@@ -2354,8 +2354,8 @@
       <c r="E91" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>11</v>
+      <c r="F91" s="11">
+        <v>0</v>
       </c>
       <c r="G91" s="11">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>21</v>
       </c>
@@ -2375,42 +2375,42 @@
         <v>29</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>11</v>
+      <c r="E92" s="9">
+        <v>124935</v>
       </c>
       <c r="F92" s="9">
-        <v>124935</v>
+        <v>170391</v>
       </c>
       <c r="G92" s="9">
-        <v>170391</v>
+        <v>462655</v>
       </c>
       <c r="H92" s="9">
-        <v>462655</v>
+        <v>380849</v>
       </c>
       <c r="I92" s="9">
-        <v>380849</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>632173</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>884968</v>
       </c>
       <c r="F93" s="15">
-        <v>884968</v>
+        <v>1580093</v>
       </c>
       <c r="G93" s="15">
-        <v>1580093</v>
+        <v>4052848</v>
       </c>
       <c r="H93" s="15">
-        <v>4052848</v>
+        <v>5157558</v>
       </c>
       <c r="I93" s="15">
-        <v>5157558</v>
+        <v>6115702</v>
       </c>
     </row>
   </sheetData>
